--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Econtrol.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Econtrol.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,51 @@
   </si>
   <si>
     <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>124.158.010.215,16767</t>
+  </si>
+  <si>
+    <t>Lock: 124.158.005.014,16873</t>
+  </si>
+  <si>
+    <t>SE.2.03.---24.111215</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>Lock: 124.158.010.215,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị sai baudrate</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baudrate, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH, NCFW</t>
+  </si>
+  <si>
+    <t>Chập MCU, IC giao tiếp, IC nguồn 3v3</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 3v3, MCU, IC giao tiếp</t>
+  </si>
+  <si>
+    <t>MCU,NG</t>
   </si>
 </sst>
 </file>
@@ -619,47 +664,47 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,7 +1013,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,43 +1045,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1081,58 +1126,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1157,23 +1202,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,9 +1240,13 @@
         <v>64</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="45"/>
       <c r="M6" s="1"/>
       <c r="N6" s="47"/>
@@ -1207,7 +1256,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1234,19 +1283,33 @@
         <v>64</v>
       </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="P7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1338,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1367,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1333,7 +1396,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1362,7 +1425,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1391,7 +1454,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1422,7 +1485,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1451,7 +1514,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1480,7 +1543,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1509,7 +1572,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1628,7 +1691,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -2033,7 +2096,7 @@
       </c>
       <c r="V33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="16"/>
     </row>
@@ -2161,7 +2224,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2740,13 +2803,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2758,6 +2814,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2769,7 +2832,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2801,43 +2864,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2882,58 +2945,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2958,23 +3021,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2988,7 +3051,7 @@
       <c r="D6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="61" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="43" t="s">
@@ -2998,19 +3061,33 @@
         <v>64</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>76</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="P6" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3040,18 +3117,30 @@
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
+      <c r="J7" s="45" t="s">
+        <v>81</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="3">
+        <v>230000</v>
+      </c>
       <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="P7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>83</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3080,7 +3169,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3109,7 +3198,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3138,7 +3227,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3256,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3196,7 +3285,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3227,7 +3316,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3256,7 +3345,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3285,7 +3374,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3314,7 +3403,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3433,7 +3522,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -3465,7 +3554,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -3614,7 +3703,7 @@
       </c>
       <c r="V26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="16"/>
     </row>
@@ -3710,7 +3799,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -3806,7 +3895,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -3902,7 +3991,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -3966,7 +4055,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4545,11 +4634,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4563,6 +4647,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4606,43 +4695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4687,58 +4776,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4763,23 +4852,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,7 +4894,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4836,7 +4925,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4865,7 +4954,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4894,7 +4983,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4923,7 +5012,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4952,7 +5041,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4981,7 +5070,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5012,7 +5101,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5041,7 +5130,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5070,7 +5159,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5099,7 +5188,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6330,6 +6419,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6341,13 +6437,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Econtrol.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Econtrol.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>MCU,NG</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
   </si>
 </sst>
 </file>
@@ -667,6 +670,30 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,31 +706,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,43 +1048,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1126,58 +1129,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1202,23 +1205,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,7 +1259,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1309,7 +1312,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1338,7 +1341,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1370,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1428,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +1457,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1485,7 +1488,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1514,7 +1517,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1546,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1572,7 +1575,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2803,6 +2806,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2814,13 +2824,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2832,7 +2835,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2864,43 +2867,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2945,58 +2948,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3021,23 +3024,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3070,7 +3073,9 @@
       <c r="K6" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="45" t="s">
+        <v>84</v>
+      </c>
       <c r="M6" s="45" t="s">
         <v>79</v>
       </c>
@@ -3087,7 +3092,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3140,7 +3145,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3169,7 +3174,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3198,7 +3203,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3227,7 +3232,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3256,7 +3261,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3285,7 +3290,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3316,7 +3321,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3345,7 +3350,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3374,7 +3379,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3403,7 +3408,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4634,6 +4639,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4647,11 +4657,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4695,43 +4700,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4776,58 +4781,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4852,23 +4857,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,7 +4899,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4925,7 +4930,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4954,7 +4959,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4983,7 +4988,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5012,7 +5017,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5041,7 +5046,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5070,7 +5075,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5101,7 +5106,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5130,7 +5135,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5159,7 +5164,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5188,7 +5193,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6419,13 +6424,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6437,6 +6435,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Econtrol.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_Econtrol.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Thiết bị mất cấu hình</t>
   </si>
   <si>
-    <t>Khởi tạo lại thiết bị</t>
-  </si>
-  <si>
     <t>Tùng</t>
   </si>
   <si>
@@ -289,6 +286,24 @@
   </si>
   <si>
     <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>124.158.010.215,06688</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ lỗi, kiểm tra lại hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SF,NCFW</t>
   </si>
 </sst>
 </file>
@@ -670,9 +685,24 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,21 +722,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1016,7 +1031,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,43 +1063,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1129,58 +1144,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1205,23 +1220,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,7 +1246,9 @@
       <c r="B6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44319</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>63</v>
       </c>
@@ -1250,16 +1267,28 @@
       <c r="K6" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1274,7 +1303,9 @@
       <c r="B7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44319</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>63</v>
       </c>
@@ -1295,24 +1326,28 @@
       <c r="K7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="M7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45" t="s">
-        <v>75</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1376,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1370,7 +1405,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1399,7 +1434,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1463,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1492,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1488,7 +1523,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1517,7 +1552,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1581,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1610,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1726,7 +1761,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -2163,7 +2198,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -2227,7 +2262,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2806,13 +2841,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2824,6 +2852,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2835,7 +2870,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2867,43 +2902,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2948,58 +2983,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3024,23 +3059,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3050,7 +3085,9 @@
       <c r="B6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44319</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>66</v>
       </c>
@@ -3065,34 +3102,36 @@
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="K6" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>79</v>
-      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
+      <c r="O6" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="P6" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3107,7 +3146,9 @@
       <c r="B7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44319</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
@@ -3120,32 +3161,40 @@
       <c r="G7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>84</v>
+      </c>
       <c r="J7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="45" t="s">
         <v>81</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45" t="s">
-        <v>82</v>
       </c>
       <c r="N7" s="3">
         <v>230000</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="P7" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3174,7 +3223,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3203,7 +3252,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3232,7 +3281,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3261,7 +3310,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3290,7 +3339,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3321,7 +3370,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3399,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3379,7 +3428,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3408,7 +3457,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4639,11 +4688,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4657,6 +4701,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4700,43 +4749,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4781,58 +4830,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4857,23 +4906,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4899,7 +4948,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4930,7 +4979,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4959,7 +5008,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4988,7 +5037,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5017,7 +5066,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5046,7 +5095,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5075,7 +5124,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5106,7 +5155,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5135,7 +5184,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5164,7 +5213,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5193,7 +5242,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6424,6 +6473,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6435,13 +6491,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
